--- a/MPIS.xlsx
+++ b/MPIS.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeonetMSI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470AA6A-E63C-463F-B7E7-9F5FBE172300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -53,9 +65,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -111,7 +123,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -125,7 +137,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -232,6 +243,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F66C-4736-ADED-8BE7CD9CC4C3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -958,7 +974,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1238,25 +1260,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1275,7 +1297,7 @@
         <v>3,5-6,5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>6,5-9,5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1311,7 +1333,7 @@
         <v>9,5-12,5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>12,5-15,5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1347,7 +1369,7 @@
         <v>15,5-18,5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -1365,122 +1387,122 @@
         <v>18,5-21,5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>21</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>50</v>
       </c>
       <c r="G32">
-        <f>D32*E32</f>
+        <f t="shared" ref="G32:G38" si="1">D32*E32</f>
         <v>5</v>
       </c>
       <c r="H32">
@@ -1510,7 +1532,7 @@
         <v>16.404992000000004</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
         <v>0.3</v>
       </c>
@@ -1518,7 +1540,7 @@
         <v>128</v>
       </c>
       <c r="G33">
-        <f>D33*E33</f>
+        <f t="shared" si="1"/>
         <v>38.4</v>
       </c>
       <c r="H33">
@@ -1526,7 +1548,7 @@
         <v>17.789419520000006</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D34" s="1">
         <v>0.5</v>
       </c>
@@ -1534,7 +1556,7 @@
         <v>245</v>
       </c>
       <c r="G34">
-        <f>D34*E34</f>
+        <f t="shared" si="1"/>
         <v>122.5</v>
       </c>
       <c r="H34">
@@ -1542,7 +1564,7 @@
         <v>7.3156608000000052</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D35" s="1">
         <v>0.7</v>
       </c>
@@ -1550,7 +1572,7 @@
         <v>286</v>
       </c>
       <c r="G35">
-        <f>D35*E35</f>
+        <f t="shared" si="1"/>
         <v>200.2</v>
       </c>
       <c r="H35">
@@ -1558,7 +1580,7 @@
         <v>0.21159423999999832</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D36" s="1">
         <v>0.9</v>
       </c>
@@ -1566,7 +1588,7 @@
         <v>134</v>
       </c>
       <c r="G36">
-        <f>D36*E36</f>
+        <f t="shared" si="1"/>
         <v>120.60000000000001</v>
       </c>
       <c r="H36">
@@ -1574,7 +1596,7 @@
         <v>6.9170585599999974</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1582,7 +1604,7 @@
         <v>90</v>
       </c>
       <c r="G37">
-        <f>D37*E37</f>
+        <f t="shared" si="1"/>
         <v>99.000000000000014</v>
       </c>
       <c r="H37">
@@ -1590,7 +1612,7 @@
         <v>16.424985600000003</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>1.3</v>
       </c>
@@ -1598,7 +1620,7 @@
         <v>67</v>
       </c>
       <c r="G38">
-        <f>D38*E38</f>
+        <f t="shared" si="1"/>
         <v>87.100000000000009</v>
       </c>
       <c r="H38">
@@ -1606,7 +1628,7 @@
         <v>26.35644928</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -1614,7 +1636,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -1622,7 +1644,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1653,7 @@
         <v>0.67280000000000006</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1662,7 @@
         <v>9.1511671671671679E-2</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>6</v>
       </c>
@@ -1649,9 +1671,13 @@
         <v>0.30250896130804406</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>7</v>
+      </c>
+      <c r="D45">
+        <f>NORMSINV(1 - D40/2)</f>
+        <v>1.9599639845400536</v>
       </c>
     </row>
   </sheetData>
